--- a/class2/PianoGame/피아노게임 알고리즘 정리.xlsx
+++ b/class2/PianoGame/피아노게임 알고리즘 정리.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XINNOS_IAS_CYKIM\Desktop\CLASS_Csharp\class2\PianoGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XINNOS\Desktop\csharp_git\class2\PianoGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B27ADC-4434-4E00-BF71-E2E9BA184D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="음계사진" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="음계별좌표" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="157">
   <si>
     <t>미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,13 +192,429 @@
   <si>
     <t>미</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도형 높이: 485-110 --&gt;375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8초</t>
+  </si>
+  <si>
+    <t>9초</t>
+  </si>
+  <si>
+    <t>10초</t>
+  </si>
+  <si>
+    <t>7초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20초</t>
+  </si>
+  <si>
+    <t>30초</t>
+  </si>
+  <si>
+    <t>11초</t>
+  </si>
+  <si>
+    <t>12초</t>
+  </si>
+  <si>
+    <t>13초</t>
+  </si>
+  <si>
+    <t>14초</t>
+  </si>
+  <si>
+    <t>15초</t>
+  </si>
+  <si>
+    <t>16초</t>
+  </si>
+  <si>
+    <t>17초</t>
+  </si>
+  <si>
+    <t>18초</t>
+  </si>
+  <si>
+    <t>19초</t>
+  </si>
+  <si>
+    <t>21초</t>
+  </si>
+  <si>
+    <t>22초</t>
+  </si>
+  <si>
+    <t>23초</t>
+  </si>
+  <si>
+    <t>24초</t>
+  </si>
+  <si>
+    <t>25초</t>
+  </si>
+  <si>
+    <t>26초</t>
+  </si>
+  <si>
+    <t>27초</t>
+  </si>
+  <si>
+    <t>28초</t>
+  </si>
+  <si>
+    <t>29초</t>
+  </si>
+  <si>
+    <t>31초</t>
+  </si>
+  <si>
+    <t>32초</t>
+  </si>
+  <si>
+    <t>33초</t>
+  </si>
+  <si>
+    <t>airplane[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new int[] {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new int[] {11}</t>
+  </si>
+  <si>
+    <t>new int[] {6,12}</t>
+  </si>
+  <si>
+    <t>new int[] {1,7,13}</t>
+  </si>
+  <si>
+    <t>new int[] {2,6,8,14}</t>
+  </si>
+  <si>
+    <t>new int[] {2,6,8,10,14}</t>
+  </si>
+  <si>
+    <t>new int[] {3,7,9,10,11}</t>
+  </si>
+  <si>
+    <t>new int[] {4,8,10,11,12}</t>
+  </si>
+  <si>
+    <t>new int[] {9,11,12,13}</t>
+  </si>
+  <si>
+    <t>new int[] {5,12,13,14}</t>
+  </si>
+  <si>
+    <t>new int[] {5,6,13,14}</t>
+  </si>
+  <si>
+    <t>new int[] {5,6,7,14}</t>
+  </si>
+  <si>
+    <t>new int[] {6,7,8}</t>
+  </si>
+  <si>
+    <t>new int[] {7,8,9,10}</t>
+  </si>
+  <si>
+    <t>new int[] {8,9,11,20}</t>
+  </si>
+  <si>
+    <t>new int[] {9,12,20,21}</t>
+  </si>
+  <si>
+    <t>new int[] {13,21,22}</t>
+  </si>
+  <si>
+    <t>new int[] {10,14,22,23}</t>
+  </si>
+  <si>
+    <t>new int[] {5,11,23,24}</t>
+  </si>
+  <si>
+    <t>new int[] {0,6,12,24}</t>
+  </si>
+  <si>
+    <t>new int[] {5,1,7,13}</t>
+  </si>
+  <si>
+    <t>new int[] {5,11,12,13,9}</t>
+  </si>
+  <si>
+    <t>new int[] {5,6,12,13,14}</t>
+  </si>
+  <si>
+    <t>new int[] {6,7,10,13,14}</t>
+  </si>
+  <si>
+    <t>new int[] {7,8,11,14}</t>
+  </si>
+  <si>
+    <t>new int[] {5,8,9,12}</t>
+  </si>
+  <si>
+    <t>new int[] {0,6,13,9}</t>
+  </si>
+  <si>
+    <t>new int[] {1,7,14}</t>
+  </si>
+  <si>
+    <t>new int[] {2,8}</t>
+  </si>
+  <si>
+    <t>new int[] {3,9}</t>
+  </si>
+  <si>
+    <t>new int[] {4}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,21 +630,121 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -225,8 +753,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,23 +1099,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:AF39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="54" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="3.34765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="54" width="3.34765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1">
@@ -687,8 +1282,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
@@ -767,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.7">
       <c r="BD3" t="s">
         <v>21</v>
       </c>
@@ -929,6 +1524,7860 @@
       </c>
       <c r="DE3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:109" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" s="10">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3">
+        <v>35</v>
+      </c>
+      <c r="K5" s="12">
+        <f>375/5</f>
+        <v>75</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4">
+        <v>27</v>
+      </c>
+      <c r="H7" s="8">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="U7" t="s">
+        <v>122</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA7">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8">
+        <v>33</v>
+      </c>
+      <c r="I8" s="5">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:109" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9">
+        <v>24</v>
+      </c>
+      <c r="G9" s="6">
+        <v>29</v>
+      </c>
+      <c r="H9" s="9">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>13</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:109" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AD10">
+        <v>14</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>14</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>6</v>
+      </c>
+      <c r="AC11">
+        <v>8</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>14</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="D12" s="18">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4">
+        <v>26</v>
+      </c>
+      <c r="H12" s="8">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>7</v>
+      </c>
+      <c r="AC12">
+        <v>9</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4">
+        <v>27</v>
+      </c>
+      <c r="H13" s="8">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
+        <v>8</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:109" x14ac:dyDescent="0.7">
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5">
+        <v>38</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="AA14">
+        <v>9</v>
+      </c>
+      <c r="AB14">
+        <v>11</v>
+      </c>
+      <c r="AC14">
+        <v>12</v>
+      </c>
+      <c r="AD14">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:109" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B15" s="9">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6">
+        <v>19</v>
+      </c>
+      <c r="F15" s="9">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6">
+        <v>29</v>
+      </c>
+      <c r="H15" s="9">
+        <v>34</v>
+      </c>
+      <c r="I15" s="7">
+        <v>39</v>
+      </c>
+      <c r="M15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <v>12</v>
+      </c>
+      <c r="AC15">
+        <v>13</v>
+      </c>
+      <c r="AD15">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:109" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="M16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>13</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="AA16">
+        <v>5</v>
+      </c>
+      <c r="AB16">
+        <v>6</v>
+      </c>
+      <c r="AC16">
+        <v>13</v>
+      </c>
+      <c r="AD16">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>15</v>
+      </c>
+      <c r="F17" s="10">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
+        <v>25</v>
+      </c>
+      <c r="H17" s="10">
+        <v>30</v>
+      </c>
+      <c r="I17" s="3">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>7</v>
+      </c>
+      <c r="AD17">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8">
+        <v>21</v>
+      </c>
+      <c r="G18" s="4">
+        <v>26</v>
+      </c>
+      <c r="H18" s="8">
+        <v>31</v>
+      </c>
+      <c r="I18" s="5">
+        <v>36</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="AA18">
+        <v>6</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+      <c r="AC18">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7</v>
+      </c>
+      <c r="D19" s="18">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8">
+        <v>22</v>
+      </c>
+      <c r="G19" s="4">
+        <v>27</v>
+      </c>
+      <c r="H19" s="8">
+        <v>32</v>
+      </c>
+      <c r="I19" s="5">
+        <v>37</v>
+      </c>
+      <c r="M19" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>9</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="AA19">
+        <v>7</v>
+      </c>
+      <c r="AB19">
+        <v>8</v>
+      </c>
+      <c r="AC19">
+        <v>9</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4">
+        <v>28</v>
+      </c>
+      <c r="H20" s="8">
+        <v>33</v>
+      </c>
+      <c r="I20" s="5">
+        <v>38</v>
+      </c>
+      <c r="M20" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <v>9</v>
+      </c>
+      <c r="P20">
+        <v>11</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="AA20">
+        <v>8</v>
+      </c>
+      <c r="AB20">
+        <v>9</v>
+      </c>
+      <c r="AC20">
+        <v>11</v>
+      </c>
+      <c r="AD20">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B21" s="9">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9">
+        <v>14</v>
+      </c>
+      <c r="E21" s="6">
+        <v>19</v>
+      </c>
+      <c r="F21" s="9">
+        <v>24</v>
+      </c>
+      <c r="G21" s="6">
+        <v>29</v>
+      </c>
+      <c r="H21" s="9">
+        <v>34</v>
+      </c>
+      <c r="I21" s="7">
+        <v>39</v>
+      </c>
+      <c r="M21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>21</v>
+      </c>
+      <c r="AA21">
+        <v>9</v>
+      </c>
+      <c r="AB21">
+        <v>12</v>
+      </c>
+      <c r="AC21">
+        <v>20</v>
+      </c>
+      <c r="AD21">
+        <v>21</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="M22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>21</v>
+      </c>
+      <c r="P22">
+        <v>22</v>
+      </c>
+      <c r="AA22">
+        <v>13</v>
+      </c>
+      <c r="AB22">
+        <v>21</v>
+      </c>
+      <c r="AC22">
+        <v>22</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2">
+        <v>25</v>
+      </c>
+      <c r="H23" s="10">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3">
+        <v>35</v>
+      </c>
+      <c r="M23" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <v>23</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23">
+        <v>14</v>
+      </c>
+      <c r="AC23">
+        <v>22</v>
+      </c>
+      <c r="AD23">
+        <v>23</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI23" s="11">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>15</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>20</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>25</v>
+      </c>
+      <c r="AM23" s="10">
+        <v>30</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="B24" s="18">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4">
+        <v>16</v>
+      </c>
+      <c r="F24" s="8">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4">
+        <v>26</v>
+      </c>
+      <c r="H24" s="8">
+        <v>31</v>
+      </c>
+      <c r="I24" s="5">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>11</v>
+      </c>
+      <c r="P24">
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <v>24</v>
+      </c>
+      <c r="AA24">
+        <v>5</v>
+      </c>
+      <c r="AB24">
+        <v>11</v>
+      </c>
+      <c r="AC24">
+        <v>23</v>
+      </c>
+      <c r="AD24">
+        <v>24</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>6</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>11</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>16</v>
+      </c>
+      <c r="AK24" s="8">
+        <v>21</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>26</v>
+      </c>
+      <c r="AM24" s="8">
+        <v>31</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4">
+        <v>17</v>
+      </c>
+      <c r="F25" s="8">
+        <v>22</v>
+      </c>
+      <c r="G25" s="4">
+        <v>27</v>
+      </c>
+      <c r="H25" s="8">
+        <v>32</v>
+      </c>
+      <c r="I25" s="5">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>12</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>6</v>
+      </c>
+      <c r="AC25">
+        <v>12</v>
+      </c>
+      <c r="AD25">
+        <v>24</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>7</v>
+      </c>
+      <c r="AI25" s="8">
+        <v>12</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>17</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>22</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>27</v>
+      </c>
+      <c r="AM25" s="8">
+        <v>32</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8</v>
+      </c>
+      <c r="D26" s="18">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4">
+        <v>18</v>
+      </c>
+      <c r="F26" s="8">
+        <v>23</v>
+      </c>
+      <c r="G26" s="4">
+        <v>28</v>
+      </c>
+      <c r="H26" s="8">
+        <v>33</v>
+      </c>
+      <c r="I26" s="5">
+        <v>38</v>
+      </c>
+      <c r="M26" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>13</v>
+      </c>
+      <c r="AA26">
+        <v>5</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>7</v>
+      </c>
+      <c r="AD26">
+        <v>13</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>8</v>
+      </c>
+      <c r="AI26" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>18</v>
+      </c>
+      <c r="AK26" s="8">
+        <v>23</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>28</v>
+      </c>
+      <c r="AM26" s="8">
+        <v>33</v>
+      </c>
+      <c r="AN26" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9</v>
+      </c>
+      <c r="D27" s="9">
+        <v>14</v>
+      </c>
+      <c r="E27" s="6">
+        <v>19</v>
+      </c>
+      <c r="F27" s="9">
+        <v>24</v>
+      </c>
+      <c r="G27" s="6">
+        <v>29</v>
+      </c>
+      <c r="H27" s="9">
+        <v>34</v>
+      </c>
+      <c r="I27" s="7">
+        <v>39</v>
+      </c>
+      <c r="M27" t="s">
+        <v>110</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>14</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>8</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>14</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG27" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH27" s="6">
+        <v>9</v>
+      </c>
+      <c r="AI27" s="9">
+        <v>14</v>
+      </c>
+      <c r="AJ27" s="6">
+        <v>19</v>
+      </c>
+      <c r="AK27" s="9">
+        <v>24</v>
+      </c>
+      <c r="AL27" s="6">
+        <v>29</v>
+      </c>
+      <c r="AM27" s="9">
+        <v>34</v>
+      </c>
+      <c r="AN27" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="M28" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <v>9</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>11</v>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
+      <c r="AB28">
+        <v>7</v>
+      </c>
+      <c r="AC28">
+        <v>9</v>
+      </c>
+      <c r="AD28">
+        <v>10</v>
+      </c>
+      <c r="AE28">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="16">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2">
+        <v>25</v>
+      </c>
+      <c r="H29" s="10">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3">
+        <v>35</v>
+      </c>
+      <c r="M29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>12</v>
+      </c>
+      <c r="AA29">
+        <v>4</v>
+      </c>
+      <c r="AB29">
+        <v>8</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+      <c r="AE29">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="19">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4">
+        <v>16</v>
+      </c>
+      <c r="F30" s="8">
+        <v>21</v>
+      </c>
+      <c r="G30" s="4">
+        <v>26</v>
+      </c>
+      <c r="H30" s="8">
+        <v>31</v>
+      </c>
+      <c r="I30" s="5">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>113</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>11</v>
+      </c>
+      <c r="P30">
+        <v>12</v>
+      </c>
+      <c r="Q30">
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <v>9</v>
+      </c>
+      <c r="AA30">
+        <v>5</v>
+      </c>
+      <c r="AB30">
+        <v>11</v>
+      </c>
+      <c r="AC30">
+        <v>12</v>
+      </c>
+      <c r="AD30">
+        <v>13</v>
+      </c>
+      <c r="AE30">
+        <v>9</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="B31" s="18">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8">
+        <v>22</v>
+      </c>
+      <c r="G31" s="4">
+        <v>27</v>
+      </c>
+      <c r="H31" s="8">
+        <v>32</v>
+      </c>
+      <c r="I31" s="5">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+      <c r="R31">
+        <v>14</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+      <c r="AB31">
+        <v>6</v>
+      </c>
+      <c r="AC31">
+        <v>12</v>
+      </c>
+      <c r="AD31">
+        <v>13</v>
+      </c>
+      <c r="AE31">
+        <v>14</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.7">
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="19">
+        <v>8</v>
+      </c>
+      <c r="D32" s="8">
+        <v>13</v>
+      </c>
+      <c r="E32" s="4">
+        <v>18</v>
+      </c>
+      <c r="F32" s="8">
+        <v>23</v>
+      </c>
+      <c r="G32" s="4">
+        <v>28</v>
+      </c>
+      <c r="H32" s="8">
+        <v>33</v>
+      </c>
+      <c r="I32" s="5">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>115</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <v>13</v>
+      </c>
+      <c r="R32">
+        <v>14</v>
+      </c>
+      <c r="AA32">
+        <v>6</v>
+      </c>
+      <c r="AB32">
+        <v>7</v>
+      </c>
+      <c r="AC32">
+        <v>10</v>
+      </c>
+      <c r="AD32">
+        <v>13</v>
+      </c>
+      <c r="AE32">
+        <v>14</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>9</v>
+      </c>
+      <c r="D33" s="20">
+        <v>14</v>
+      </c>
+      <c r="E33" s="6">
+        <v>19</v>
+      </c>
+      <c r="F33" s="9">
+        <v>24</v>
+      </c>
+      <c r="G33" s="6">
+        <v>29</v>
+      </c>
+      <c r="H33" s="9">
+        <v>34</v>
+      </c>
+      <c r="I33" s="7">
+        <v>39</v>
+      </c>
+      <c r="M33" t="s">
+        <v>116</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>8</v>
+      </c>
+      <c r="P33">
+        <v>11</v>
+      </c>
+      <c r="Q33">
+        <v>14</v>
+      </c>
+      <c r="AA33">
+        <v>7</v>
+      </c>
+      <c r="AB33">
+        <v>8</v>
+      </c>
+      <c r="AC33">
+        <v>11</v>
+      </c>
+      <c r="AD33">
+        <v>14</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="M34" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>8</v>
+      </c>
+      <c r="P34">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>12</v>
+      </c>
+      <c r="AA34">
+        <v>5</v>
+      </c>
+      <c r="AB34">
+        <v>8</v>
+      </c>
+      <c r="AC34">
+        <v>9</v>
+      </c>
+      <c r="AD34">
+        <v>12</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="16">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <v>15</v>
+      </c>
+      <c r="F35" s="10">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2">
+        <v>25</v>
+      </c>
+      <c r="H35" s="10">
+        <v>30</v>
+      </c>
+      <c r="I35" s="3">
+        <v>35</v>
+      </c>
+      <c r="M35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>13</v>
+      </c>
+      <c r="Q35">
+        <v>9</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>6</v>
+      </c>
+      <c r="AC35">
+        <v>13</v>
+      </c>
+      <c r="AD35">
+        <v>9</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="B36" s="8">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6</v>
+      </c>
+      <c r="D36" s="18">
+        <v>11</v>
+      </c>
+      <c r="E36" s="4">
+        <v>16</v>
+      </c>
+      <c r="F36" s="8">
+        <v>21</v>
+      </c>
+      <c r="G36" s="4">
+        <v>26</v>
+      </c>
+      <c r="H36" s="8">
+        <v>31</v>
+      </c>
+      <c r="I36" s="5">
+        <v>36</v>
+      </c>
+      <c r="M36" t="s">
+        <v>100</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <v>14</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>7</v>
+      </c>
+      <c r="AC36">
+        <v>14</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="19">
+        <v>7</v>
+      </c>
+      <c r="D37" s="8">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8">
+        <v>22</v>
+      </c>
+      <c r="G37" s="4">
+        <v>27</v>
+      </c>
+      <c r="H37" s="8">
+        <v>32</v>
+      </c>
+      <c r="I37" s="5">
+        <v>37</v>
+      </c>
+      <c r="M37" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>8</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>8</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="B38" s="18">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4">
+        <v>8</v>
+      </c>
+      <c r="D38" s="8">
+        <v>13</v>
+      </c>
+      <c r="E38" s="4">
+        <v>18</v>
+      </c>
+      <c r="F38" s="8">
+        <v>23</v>
+      </c>
+      <c r="G38" s="4">
+        <v>28</v>
+      </c>
+      <c r="H38" s="8">
+        <v>33</v>
+      </c>
+      <c r="I38" s="5">
+        <v>38</v>
+      </c>
+      <c r="M38" t="s">
+        <v>120</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>9</v>
+      </c>
+      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <v>9</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="21">
+        <v>9</v>
+      </c>
+      <c r="D39" s="9">
+        <v>14</v>
+      </c>
+      <c r="E39" s="6">
+        <v>19</v>
+      </c>
+      <c r="F39" s="9">
+        <v>24</v>
+      </c>
+      <c r="G39" s="6">
+        <v>29</v>
+      </c>
+      <c r="H39" s="9">
+        <v>34</v>
+      </c>
+      <c r="I39" s="7">
+        <v>39</v>
+      </c>
+      <c r="M39" t="s">
+        <v>121</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="AA39">
+        <v>4</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="11">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="16">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>15</v>
+      </c>
+      <c r="F41" s="10">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2">
+        <v>25</v>
+      </c>
+      <c r="H41" s="10">
+        <v>30</v>
+      </c>
+      <c r="I41" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>6</v>
+      </c>
+      <c r="D42" s="18">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4">
+        <v>16</v>
+      </c>
+      <c r="F42" s="8">
+        <v>21</v>
+      </c>
+      <c r="G42" s="4">
+        <v>26</v>
+      </c>
+      <c r="H42" s="8">
+        <v>31</v>
+      </c>
+      <c r="I42" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4">
+        <v>7</v>
+      </c>
+      <c r="D43" s="18">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4">
+        <v>17</v>
+      </c>
+      <c r="F43" s="8">
+        <v>22</v>
+      </c>
+      <c r="G43" s="4">
+        <v>27</v>
+      </c>
+      <c r="H43" s="8">
+        <v>32</v>
+      </c>
+      <c r="I43" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="B44" s="8">
+        <v>3</v>
+      </c>
+      <c r="C44" s="19">
+        <v>8</v>
+      </c>
+      <c r="D44" s="8">
+        <v>13</v>
+      </c>
+      <c r="E44" s="4">
+        <v>18</v>
+      </c>
+      <c r="F44" s="8">
+        <v>23</v>
+      </c>
+      <c r="G44" s="4">
+        <v>28</v>
+      </c>
+      <c r="H44" s="8">
+        <v>33</v>
+      </c>
+      <c r="I44" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B45" s="20">
+        <v>4</v>
+      </c>
+      <c r="C45" s="6">
+        <v>9</v>
+      </c>
+      <c r="D45" s="9">
+        <v>14</v>
+      </c>
+      <c r="E45" s="6">
+        <v>19</v>
+      </c>
+      <c r="F45" s="9">
+        <v>24</v>
+      </c>
+      <c r="G45" s="6">
+        <v>29</v>
+      </c>
+      <c r="H45" s="9">
+        <v>34</v>
+      </c>
+      <c r="I45" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="11">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
+        <v>15</v>
+      </c>
+      <c r="F47" s="10">
+        <v>20</v>
+      </c>
+      <c r="G47" s="2">
+        <v>25</v>
+      </c>
+      <c r="H47" s="10">
+        <v>30</v>
+      </c>
+      <c r="I47" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.7">
+      <c r="B48" s="8">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>6</v>
+      </c>
+      <c r="D48" s="18">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4">
+        <v>16</v>
+      </c>
+      <c r="F48" s="8">
+        <v>21</v>
+      </c>
+      <c r="G48" s="4">
+        <v>26</v>
+      </c>
+      <c r="H48" s="8">
+        <v>31</v>
+      </c>
+      <c r="I48" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B49" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4">
+        <v>7</v>
+      </c>
+      <c r="D49" s="18">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4">
+        <v>17</v>
+      </c>
+      <c r="F49" s="8">
+        <v>22</v>
+      </c>
+      <c r="G49" s="4">
+        <v>27</v>
+      </c>
+      <c r="H49" s="8">
+        <v>32</v>
+      </c>
+      <c r="I49" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B50" s="8">
+        <v>3</v>
+      </c>
+      <c r="C50" s="4">
+        <v>8</v>
+      </c>
+      <c r="D50" s="18">
+        <v>13</v>
+      </c>
+      <c r="E50" s="4">
+        <v>18</v>
+      </c>
+      <c r="F50" s="8">
+        <v>23</v>
+      </c>
+      <c r="G50" s="4">
+        <v>28</v>
+      </c>
+      <c r="H50" s="8">
+        <v>33</v>
+      </c>
+      <c r="I50" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B51" s="9">
+        <v>4</v>
+      </c>
+      <c r="C51" s="21">
+        <v>9</v>
+      </c>
+      <c r="D51" s="9">
+        <v>14</v>
+      </c>
+      <c r="E51" s="6">
+        <v>19</v>
+      </c>
+      <c r="F51" s="9">
+        <v>24</v>
+      </c>
+      <c r="G51" s="6">
+        <v>29</v>
+      </c>
+      <c r="H51" s="9">
+        <v>34</v>
+      </c>
+      <c r="I51" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+      <c r="C53" s="17">
+        <v>5</v>
+      </c>
+      <c r="D53" s="11">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2">
+        <v>15</v>
+      </c>
+      <c r="F53" s="10">
+        <v>20</v>
+      </c>
+      <c r="G53" s="2">
+        <v>25</v>
+      </c>
+      <c r="H53" s="10">
+        <v>30</v>
+      </c>
+      <c r="I53" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>6</v>
+      </c>
+      <c r="D54" s="8">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4">
+        <v>16</v>
+      </c>
+      <c r="F54" s="8">
+        <v>21</v>
+      </c>
+      <c r="G54" s="4">
+        <v>26</v>
+      </c>
+      <c r="H54" s="8">
+        <v>31</v>
+      </c>
+      <c r="I54" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B55" s="8">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4">
+        <v>7</v>
+      </c>
+      <c r="D55" s="18">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4">
+        <v>17</v>
+      </c>
+      <c r="F55" s="8">
+        <v>22</v>
+      </c>
+      <c r="G55" s="4">
+        <v>27</v>
+      </c>
+      <c r="H55" s="8">
+        <v>32</v>
+      </c>
+      <c r="I55" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B56" s="8">
+        <v>3</v>
+      </c>
+      <c r="C56" s="4">
+        <v>8</v>
+      </c>
+      <c r="D56" s="18">
+        <v>13</v>
+      </c>
+      <c r="E56" s="4">
+        <v>18</v>
+      </c>
+      <c r="F56" s="8">
+        <v>23</v>
+      </c>
+      <c r="G56" s="4">
+        <v>28</v>
+      </c>
+      <c r="H56" s="8">
+        <v>33</v>
+      </c>
+      <c r="I56" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B57" s="9">
+        <v>4</v>
+      </c>
+      <c r="C57" s="6">
+        <v>9</v>
+      </c>
+      <c r="D57" s="20">
+        <v>14</v>
+      </c>
+      <c r="E57" s="6">
+        <v>19</v>
+      </c>
+      <c r="F57" s="9">
+        <v>24</v>
+      </c>
+      <c r="G57" s="6">
+        <v>29</v>
+      </c>
+      <c r="H57" s="9">
+        <v>34</v>
+      </c>
+      <c r="I57" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="11">
+        <v>0</v>
+      </c>
+      <c r="C59" s="17">
+        <v>5</v>
+      </c>
+      <c r="D59" s="11">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2">
+        <v>15</v>
+      </c>
+      <c r="F59" s="10">
+        <v>20</v>
+      </c>
+      <c r="G59" s="2">
+        <v>25</v>
+      </c>
+      <c r="H59" s="10">
+        <v>30</v>
+      </c>
+      <c r="I59" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="19">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8">
+        <v>11</v>
+      </c>
+      <c r="E60" s="4">
+        <v>16</v>
+      </c>
+      <c r="F60" s="8">
+        <v>21</v>
+      </c>
+      <c r="G60" s="4">
+        <v>26</v>
+      </c>
+      <c r="H60" s="8">
+        <v>31</v>
+      </c>
+      <c r="I60" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B61" s="8">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4">
+        <v>7</v>
+      </c>
+      <c r="D61" s="8">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4">
+        <v>17</v>
+      </c>
+      <c r="F61" s="8">
+        <v>22</v>
+      </c>
+      <c r="G61" s="4">
+        <v>27</v>
+      </c>
+      <c r="H61" s="8">
+        <v>32</v>
+      </c>
+      <c r="I61" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B62" s="8">
+        <v>3</v>
+      </c>
+      <c r="C62" s="4">
+        <v>8</v>
+      </c>
+      <c r="D62" s="18">
+        <v>13</v>
+      </c>
+      <c r="E62" s="4">
+        <v>18</v>
+      </c>
+      <c r="F62" s="8">
+        <v>23</v>
+      </c>
+      <c r="G62" s="4">
+        <v>28</v>
+      </c>
+      <c r="H62" s="8">
+        <v>33</v>
+      </c>
+      <c r="I62" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B63" s="9">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6">
+        <v>9</v>
+      </c>
+      <c r="D63" s="20">
+        <v>14</v>
+      </c>
+      <c r="E63" s="6">
+        <v>19</v>
+      </c>
+      <c r="F63" s="9">
+        <v>24</v>
+      </c>
+      <c r="G63" s="6">
+        <v>29</v>
+      </c>
+      <c r="H63" s="9">
+        <v>34</v>
+      </c>
+      <c r="I63" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A65" s="1">
+        <v>11</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0</v>
+      </c>
+      <c r="C65" s="17">
+        <v>5</v>
+      </c>
+      <c r="D65" s="11">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2">
+        <v>15</v>
+      </c>
+      <c r="F65" s="10">
+        <v>20</v>
+      </c>
+      <c r="G65" s="2">
+        <v>25</v>
+      </c>
+      <c r="H65" s="10">
+        <v>30</v>
+      </c>
+      <c r="I65" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B66" s="8">
+        <v>1</v>
+      </c>
+      <c r="C66" s="19">
+        <v>6</v>
+      </c>
+      <c r="D66" s="8">
+        <v>11</v>
+      </c>
+      <c r="E66" s="4">
+        <v>16</v>
+      </c>
+      <c r="F66" s="8">
+        <v>21</v>
+      </c>
+      <c r="G66" s="4">
+        <v>26</v>
+      </c>
+      <c r="H66" s="8">
+        <v>31</v>
+      </c>
+      <c r="I66" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B67" s="8">
+        <v>2</v>
+      </c>
+      <c r="C67" s="19">
+        <v>7</v>
+      </c>
+      <c r="D67" s="8">
+        <v>12</v>
+      </c>
+      <c r="E67" s="4">
+        <v>17</v>
+      </c>
+      <c r="F67" s="8">
+        <v>22</v>
+      </c>
+      <c r="G67" s="4">
+        <v>27</v>
+      </c>
+      <c r="H67" s="8">
+        <v>32</v>
+      </c>
+      <c r="I67" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B68" s="8">
+        <v>3</v>
+      </c>
+      <c r="C68" s="4">
+        <v>8</v>
+      </c>
+      <c r="D68" s="8">
+        <v>13</v>
+      </c>
+      <c r="E68" s="4">
+        <v>18</v>
+      </c>
+      <c r="F68" s="8">
+        <v>23</v>
+      </c>
+      <c r="G68" s="4">
+        <v>28</v>
+      </c>
+      <c r="H68" s="8">
+        <v>33</v>
+      </c>
+      <c r="I68" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B69" s="9">
+        <v>4</v>
+      </c>
+      <c r="C69" s="6">
+        <v>9</v>
+      </c>
+      <c r="D69" s="20">
+        <v>14</v>
+      </c>
+      <c r="E69" s="6">
+        <v>19</v>
+      </c>
+      <c r="F69" s="9">
+        <v>24</v>
+      </c>
+      <c r="G69" s="6">
+        <v>29</v>
+      </c>
+      <c r="H69" s="9">
+        <v>34</v>
+      </c>
+      <c r="I69" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A71" s="1">
+        <v>12</v>
+      </c>
+      <c r="B71" s="11">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="11">
+        <v>10</v>
+      </c>
+      <c r="E71" s="2">
+        <v>15</v>
+      </c>
+      <c r="F71" s="10">
+        <v>20</v>
+      </c>
+      <c r="G71" s="2">
+        <v>25</v>
+      </c>
+      <c r="H71" s="10">
+        <v>30</v>
+      </c>
+      <c r="I71" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B72" s="8">
+        <v>1</v>
+      </c>
+      <c r="C72" s="19">
+        <v>6</v>
+      </c>
+      <c r="D72" s="8">
+        <v>11</v>
+      </c>
+      <c r="E72" s="4">
+        <v>16</v>
+      </c>
+      <c r="F72" s="8">
+        <v>21</v>
+      </c>
+      <c r="G72" s="4">
+        <v>26</v>
+      </c>
+      <c r="H72" s="8">
+        <v>31</v>
+      </c>
+      <c r="I72" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B73" s="8">
+        <v>2</v>
+      </c>
+      <c r="C73" s="19">
+        <v>7</v>
+      </c>
+      <c r="D73" s="8">
+        <v>12</v>
+      </c>
+      <c r="E73" s="4">
+        <v>17</v>
+      </c>
+      <c r="F73" s="8">
+        <v>22</v>
+      </c>
+      <c r="G73" s="4">
+        <v>27</v>
+      </c>
+      <c r="H73" s="8">
+        <v>32</v>
+      </c>
+      <c r="I73" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B74" s="8">
+        <v>3</v>
+      </c>
+      <c r="C74" s="19">
+        <v>8</v>
+      </c>
+      <c r="D74" s="8">
+        <v>13</v>
+      </c>
+      <c r="E74" s="4">
+        <v>18</v>
+      </c>
+      <c r="F74" s="8">
+        <v>23</v>
+      </c>
+      <c r="G74" s="4">
+        <v>28</v>
+      </c>
+      <c r="H74" s="8">
+        <v>33</v>
+      </c>
+      <c r="I74" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B75" s="9">
+        <v>4</v>
+      </c>
+      <c r="C75" s="6">
+        <v>9</v>
+      </c>
+      <c r="D75" s="9">
+        <v>14</v>
+      </c>
+      <c r="E75" s="6">
+        <v>19</v>
+      </c>
+      <c r="F75" s="9">
+        <v>24</v>
+      </c>
+      <c r="G75" s="6">
+        <v>29</v>
+      </c>
+      <c r="H75" s="9">
+        <v>34</v>
+      </c>
+      <c r="I75" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A77" s="1">
+        <v>13</v>
+      </c>
+      <c r="B77" s="11">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5</v>
+      </c>
+      <c r="D77" s="16">
+        <v>10</v>
+      </c>
+      <c r="E77" s="2">
+        <v>15</v>
+      </c>
+      <c r="F77" s="10">
+        <v>20</v>
+      </c>
+      <c r="G77" s="2">
+        <v>25</v>
+      </c>
+      <c r="H77" s="10">
+        <v>30</v>
+      </c>
+      <c r="I77" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B78" s="8">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>6</v>
+      </c>
+      <c r="D78" s="8">
+        <v>11</v>
+      </c>
+      <c r="E78" s="4">
+        <v>16</v>
+      </c>
+      <c r="F78" s="8">
+        <v>21</v>
+      </c>
+      <c r="G78" s="4">
+        <v>26</v>
+      </c>
+      <c r="H78" s="8">
+        <v>31</v>
+      </c>
+      <c r="I78" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B79" s="8">
+        <v>2</v>
+      </c>
+      <c r="C79" s="19">
+        <v>7</v>
+      </c>
+      <c r="D79" s="8">
+        <v>12</v>
+      </c>
+      <c r="E79" s="4">
+        <v>17</v>
+      </c>
+      <c r="F79" s="8">
+        <v>22</v>
+      </c>
+      <c r="G79" s="4">
+        <v>27</v>
+      </c>
+      <c r="H79" s="8">
+        <v>32</v>
+      </c>
+      <c r="I79" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B80" s="8">
+        <v>3</v>
+      </c>
+      <c r="C80" s="19">
+        <v>8</v>
+      </c>
+      <c r="D80" s="8">
+        <v>13</v>
+      </c>
+      <c r="E80" s="4">
+        <v>18</v>
+      </c>
+      <c r="F80" s="8">
+        <v>23</v>
+      </c>
+      <c r="G80" s="4">
+        <v>28</v>
+      </c>
+      <c r="H80" s="8">
+        <v>33</v>
+      </c>
+      <c r="I80" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B81" s="9">
+        <v>4</v>
+      </c>
+      <c r="C81" s="21">
+        <v>9</v>
+      </c>
+      <c r="D81" s="9">
+        <v>14</v>
+      </c>
+      <c r="E81" s="6">
+        <v>19</v>
+      </c>
+      <c r="F81" s="9">
+        <v>24</v>
+      </c>
+      <c r="G81" s="6">
+        <v>29</v>
+      </c>
+      <c r="H81" s="9">
+        <v>34</v>
+      </c>
+      <c r="I81" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A83" s="1">
+        <v>14</v>
+      </c>
+      <c r="B83" s="11">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>5</v>
+      </c>
+      <c r="D83" s="11">
+        <v>10</v>
+      </c>
+      <c r="E83" s="2">
+        <v>15</v>
+      </c>
+      <c r="F83" s="16">
+        <v>20</v>
+      </c>
+      <c r="G83" s="2">
+        <v>25</v>
+      </c>
+      <c r="H83" s="10">
+        <v>30</v>
+      </c>
+      <c r="I83" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B84" s="8">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4">
+        <v>6</v>
+      </c>
+      <c r="D84" s="18">
+        <v>11</v>
+      </c>
+      <c r="E84" s="4">
+        <v>16</v>
+      </c>
+      <c r="F84" s="8">
+        <v>21</v>
+      </c>
+      <c r="G84" s="4">
+        <v>26</v>
+      </c>
+      <c r="H84" s="8">
+        <v>31</v>
+      </c>
+      <c r="I84" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B85" s="8">
+        <v>2</v>
+      </c>
+      <c r="C85" s="4">
+        <v>7</v>
+      </c>
+      <c r="D85" s="8">
+        <v>12</v>
+      </c>
+      <c r="E85" s="4">
+        <v>17</v>
+      </c>
+      <c r="F85" s="8">
+        <v>22</v>
+      </c>
+      <c r="G85" s="4">
+        <v>27</v>
+      </c>
+      <c r="H85" s="8">
+        <v>32</v>
+      </c>
+      <c r="I85" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B86" s="8">
+        <v>3</v>
+      </c>
+      <c r="C86" s="19">
+        <v>8</v>
+      </c>
+      <c r="D86" s="8">
+        <v>13</v>
+      </c>
+      <c r="E86" s="4">
+        <v>18</v>
+      </c>
+      <c r="F86" s="8">
+        <v>23</v>
+      </c>
+      <c r="G86" s="4">
+        <v>28</v>
+      </c>
+      <c r="H86" s="8">
+        <v>33</v>
+      </c>
+      <c r="I86" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B87" s="9">
+        <v>4</v>
+      </c>
+      <c r="C87" s="21">
+        <v>9</v>
+      </c>
+      <c r="D87" s="9">
+        <v>14</v>
+      </c>
+      <c r="E87" s="6">
+        <v>19</v>
+      </c>
+      <c r="F87" s="9">
+        <v>24</v>
+      </c>
+      <c r="G87" s="6">
+        <v>29</v>
+      </c>
+      <c r="H87" s="9">
+        <v>34</v>
+      </c>
+      <c r="I87" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A89" s="1">
+        <v>15</v>
+      </c>
+      <c r="B89" s="11">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5</v>
+      </c>
+      <c r="D89" s="11">
+        <v>10</v>
+      </c>
+      <c r="E89" s="2">
+        <v>15</v>
+      </c>
+      <c r="F89" s="16">
+        <v>20</v>
+      </c>
+      <c r="G89" s="2">
+        <v>25</v>
+      </c>
+      <c r="H89" s="10">
+        <v>30</v>
+      </c>
+      <c r="I89" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B90" s="8">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4">
+        <v>6</v>
+      </c>
+      <c r="D90" s="8">
+        <v>11</v>
+      </c>
+      <c r="E90" s="4">
+        <v>16</v>
+      </c>
+      <c r="F90" s="18">
+        <v>21</v>
+      </c>
+      <c r="G90" s="4">
+        <v>26</v>
+      </c>
+      <c r="H90" s="8">
+        <v>31</v>
+      </c>
+      <c r="I90" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B91" s="8">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4">
+        <v>7</v>
+      </c>
+      <c r="D91" s="18">
+        <v>12</v>
+      </c>
+      <c r="E91" s="4">
+        <v>17</v>
+      </c>
+      <c r="F91" s="8">
+        <v>22</v>
+      </c>
+      <c r="G91" s="4">
+        <v>27</v>
+      </c>
+      <c r="H91" s="8">
+        <v>32</v>
+      </c>
+      <c r="I91" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B92" s="8">
+        <v>3</v>
+      </c>
+      <c r="C92" s="4">
+        <v>8</v>
+      </c>
+      <c r="D92" s="8">
+        <v>13</v>
+      </c>
+      <c r="E92" s="4">
+        <v>18</v>
+      </c>
+      <c r="F92" s="8">
+        <v>23</v>
+      </c>
+      <c r="G92" s="4">
+        <v>28</v>
+      </c>
+      <c r="H92" s="8">
+        <v>33</v>
+      </c>
+      <c r="I92" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B93" s="9">
+        <v>4</v>
+      </c>
+      <c r="C93" s="21">
+        <v>9</v>
+      </c>
+      <c r="D93" s="9">
+        <v>14</v>
+      </c>
+      <c r="E93" s="6">
+        <v>19</v>
+      </c>
+      <c r="F93" s="9">
+        <v>24</v>
+      </c>
+      <c r="G93" s="6">
+        <v>29</v>
+      </c>
+      <c r="H93" s="9">
+        <v>34</v>
+      </c>
+      <c r="I93" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A95" s="1">
+        <v>16</v>
+      </c>
+      <c r="B95" s="11">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>5</v>
+      </c>
+      <c r="D95" s="11">
+        <v>10</v>
+      </c>
+      <c r="E95" s="2">
+        <v>15</v>
+      </c>
+      <c r="F95" s="10">
+        <v>20</v>
+      </c>
+      <c r="G95" s="2">
+        <v>25</v>
+      </c>
+      <c r="H95" s="10">
+        <v>30</v>
+      </c>
+      <c r="I95" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B96" s="8">
+        <v>1</v>
+      </c>
+      <c r="C96" s="4">
+        <v>6</v>
+      </c>
+      <c r="D96" s="8">
+        <v>11</v>
+      </c>
+      <c r="E96" s="4">
+        <v>16</v>
+      </c>
+      <c r="F96" s="18">
+        <v>21</v>
+      </c>
+      <c r="G96" s="4">
+        <v>26</v>
+      </c>
+      <c r="H96" s="8">
+        <v>31</v>
+      </c>
+      <c r="I96" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B97" s="8">
+        <v>2</v>
+      </c>
+      <c r="C97" s="4">
+        <v>7</v>
+      </c>
+      <c r="D97" s="8">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4">
+        <v>17</v>
+      </c>
+      <c r="F97" s="18">
+        <v>22</v>
+      </c>
+      <c r="G97" s="4">
+        <v>27</v>
+      </c>
+      <c r="H97" s="8">
+        <v>32</v>
+      </c>
+      <c r="I97" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B98" s="8">
+        <v>3</v>
+      </c>
+      <c r="C98" s="4">
+        <v>8</v>
+      </c>
+      <c r="D98" s="18">
+        <v>13</v>
+      </c>
+      <c r="E98" s="4">
+        <v>18</v>
+      </c>
+      <c r="F98" s="8">
+        <v>23</v>
+      </c>
+      <c r="G98" s="4">
+        <v>28</v>
+      </c>
+      <c r="H98" s="8">
+        <v>33</v>
+      </c>
+      <c r="I98" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B99" s="9">
+        <v>4</v>
+      </c>
+      <c r="C99" s="6">
+        <v>9</v>
+      </c>
+      <c r="D99" s="9">
+        <v>14</v>
+      </c>
+      <c r="E99" s="6">
+        <v>19</v>
+      </c>
+      <c r="F99" s="9">
+        <v>24</v>
+      </c>
+      <c r="G99" s="6">
+        <v>29</v>
+      </c>
+      <c r="H99" s="9">
+        <v>34</v>
+      </c>
+      <c r="I99" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A101" s="1">
+        <v>17</v>
+      </c>
+      <c r="B101" s="11">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>5</v>
+      </c>
+      <c r="D101" s="16">
+        <v>10</v>
+      </c>
+      <c r="E101" s="2">
+        <v>15</v>
+      </c>
+      <c r="F101" s="10">
+        <v>20</v>
+      </c>
+      <c r="G101" s="2">
+        <v>25</v>
+      </c>
+      <c r="H101" s="10">
+        <v>30</v>
+      </c>
+      <c r="I101" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B102" s="8">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>6</v>
+      </c>
+      <c r="D102" s="8">
+        <v>11</v>
+      </c>
+      <c r="E102" s="4">
+        <v>16</v>
+      </c>
+      <c r="F102" s="8">
+        <v>21</v>
+      </c>
+      <c r="G102" s="4">
+        <v>26</v>
+      </c>
+      <c r="H102" s="8">
+        <v>31</v>
+      </c>
+      <c r="I102" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B103" s="8">
+        <v>2</v>
+      </c>
+      <c r="C103" s="4">
+        <v>7</v>
+      </c>
+      <c r="D103" s="8">
+        <v>12</v>
+      </c>
+      <c r="E103" s="4">
+        <v>17</v>
+      </c>
+      <c r="F103" s="18">
+        <v>22</v>
+      </c>
+      <c r="G103" s="4">
+        <v>27</v>
+      </c>
+      <c r="H103" s="8">
+        <v>32</v>
+      </c>
+      <c r="I103" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B104" s="8">
+        <v>3</v>
+      </c>
+      <c r="C104" s="4">
+        <v>8</v>
+      </c>
+      <c r="D104" s="8">
+        <v>13</v>
+      </c>
+      <c r="E104" s="4">
+        <v>18</v>
+      </c>
+      <c r="F104" s="18">
+        <v>23</v>
+      </c>
+      <c r="G104" s="4">
+        <v>28</v>
+      </c>
+      <c r="H104" s="8">
+        <v>33</v>
+      </c>
+      <c r="I104" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B105" s="9">
+        <v>4</v>
+      </c>
+      <c r="C105" s="6">
+        <v>9</v>
+      </c>
+      <c r="D105" s="20">
+        <v>14</v>
+      </c>
+      <c r="E105" s="6">
+        <v>19</v>
+      </c>
+      <c r="F105" s="9">
+        <v>24</v>
+      </c>
+      <c r="G105" s="6">
+        <v>29</v>
+      </c>
+      <c r="H105" s="9">
+        <v>34</v>
+      </c>
+      <c r="I105" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A107" s="1">
+        <v>18</v>
+      </c>
+      <c r="B107" s="11">
+        <v>0</v>
+      </c>
+      <c r="C107" s="17">
+        <v>5</v>
+      </c>
+      <c r="D107" s="11">
+        <v>10</v>
+      </c>
+      <c r="E107" s="2">
+        <v>15</v>
+      </c>
+      <c r="F107" s="10">
+        <v>20</v>
+      </c>
+      <c r="G107" s="2">
+        <v>25</v>
+      </c>
+      <c r="H107" s="10">
+        <v>30</v>
+      </c>
+      <c r="I107" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B108" s="8">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4">
+        <v>6</v>
+      </c>
+      <c r="D108" s="18">
+        <v>11</v>
+      </c>
+      <c r="E108" s="4">
+        <v>16</v>
+      </c>
+      <c r="F108" s="8">
+        <v>21</v>
+      </c>
+      <c r="G108" s="4">
+        <v>26</v>
+      </c>
+      <c r="H108" s="8">
+        <v>31</v>
+      </c>
+      <c r="I108" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B109" s="8">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4">
+        <v>7</v>
+      </c>
+      <c r="D109" s="8">
+        <v>12</v>
+      </c>
+      <c r="E109" s="4">
+        <v>17</v>
+      </c>
+      <c r="F109" s="8">
+        <v>22</v>
+      </c>
+      <c r="G109" s="4">
+        <v>27</v>
+      </c>
+      <c r="H109" s="8">
+        <v>32</v>
+      </c>
+      <c r="I109" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B110" s="8">
+        <v>3</v>
+      </c>
+      <c r="C110" s="4">
+        <v>8</v>
+      </c>
+      <c r="D110" s="8">
+        <v>13</v>
+      </c>
+      <c r="E110" s="4">
+        <v>18</v>
+      </c>
+      <c r="F110" s="18">
+        <v>23</v>
+      </c>
+      <c r="G110" s="4">
+        <v>28</v>
+      </c>
+      <c r="H110" s="8">
+        <v>33</v>
+      </c>
+      <c r="I110" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B111" s="9">
+        <v>4</v>
+      </c>
+      <c r="C111" s="6">
+        <v>9</v>
+      </c>
+      <c r="D111" s="9">
+        <v>14</v>
+      </c>
+      <c r="E111" s="6">
+        <v>19</v>
+      </c>
+      <c r="F111" s="20">
+        <v>24</v>
+      </c>
+      <c r="G111" s="6">
+        <v>29</v>
+      </c>
+      <c r="H111" s="9">
+        <v>34</v>
+      </c>
+      <c r="I111" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A113" s="1">
+        <v>19</v>
+      </c>
+      <c r="B113" s="16">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2">
+        <v>5</v>
+      </c>
+      <c r="D113" s="11">
+        <v>10</v>
+      </c>
+      <c r="E113" s="2">
+        <v>15</v>
+      </c>
+      <c r="F113" s="10">
+        <v>20</v>
+      </c>
+      <c r="G113" s="2">
+        <v>25</v>
+      </c>
+      <c r="H113" s="10">
+        <v>30</v>
+      </c>
+      <c r="I113" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B114" s="8">
+        <v>1</v>
+      </c>
+      <c r="C114" s="19">
+        <v>6</v>
+      </c>
+      <c r="D114" s="8">
+        <v>11</v>
+      </c>
+      <c r="E114" s="4">
+        <v>16</v>
+      </c>
+      <c r="F114" s="8">
+        <v>21</v>
+      </c>
+      <c r="G114" s="4">
+        <v>26</v>
+      </c>
+      <c r="H114" s="8">
+        <v>31</v>
+      </c>
+      <c r="I114" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B115" s="8">
+        <v>2</v>
+      </c>
+      <c r="C115" s="4">
+        <v>7</v>
+      </c>
+      <c r="D115" s="18">
+        <v>12</v>
+      </c>
+      <c r="E115" s="4">
+        <v>17</v>
+      </c>
+      <c r="F115" s="8">
+        <v>22</v>
+      </c>
+      <c r="G115" s="4">
+        <v>27</v>
+      </c>
+      <c r="H115" s="8">
+        <v>32</v>
+      </c>
+      <c r="I115" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B116" s="8">
+        <v>3</v>
+      </c>
+      <c r="C116" s="4">
+        <v>8</v>
+      </c>
+      <c r="D116" s="8">
+        <v>13</v>
+      </c>
+      <c r="E116" s="4">
+        <v>18</v>
+      </c>
+      <c r="F116" s="8">
+        <v>23</v>
+      </c>
+      <c r="G116" s="4">
+        <v>28</v>
+      </c>
+      <c r="H116" s="8">
+        <v>33</v>
+      </c>
+      <c r="I116" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B117" s="9">
+        <v>4</v>
+      </c>
+      <c r="C117" s="6">
+        <v>9</v>
+      </c>
+      <c r="D117" s="9">
+        <v>14</v>
+      </c>
+      <c r="E117" s="6">
+        <v>19</v>
+      </c>
+      <c r="F117" s="20">
+        <v>24</v>
+      </c>
+      <c r="G117" s="6">
+        <v>29</v>
+      </c>
+      <c r="H117" s="9">
+        <v>34</v>
+      </c>
+      <c r="I117" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A119" s="1">
+        <v>20</v>
+      </c>
+      <c r="B119" s="11">
+        <v>0</v>
+      </c>
+      <c r="C119" s="17">
+        <v>5</v>
+      </c>
+      <c r="D119" s="11">
+        <v>10</v>
+      </c>
+      <c r="E119" s="2">
+        <v>15</v>
+      </c>
+      <c r="F119" s="10">
+        <v>20</v>
+      </c>
+      <c r="G119" s="2">
+        <v>25</v>
+      </c>
+      <c r="H119" s="10">
+        <v>30</v>
+      </c>
+      <c r="I119" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B120" s="18">
+        <v>1</v>
+      </c>
+      <c r="C120" s="4">
+        <v>6</v>
+      </c>
+      <c r="D120" s="8">
+        <v>11</v>
+      </c>
+      <c r="E120" s="4">
+        <v>16</v>
+      </c>
+      <c r="F120" s="8">
+        <v>21</v>
+      </c>
+      <c r="G120" s="4">
+        <v>26</v>
+      </c>
+      <c r="H120" s="8">
+        <v>31</v>
+      </c>
+      <c r="I120" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B121" s="8">
+        <v>2</v>
+      </c>
+      <c r="C121" s="19">
+        <v>7</v>
+      </c>
+      <c r="D121" s="8">
+        <v>12</v>
+      </c>
+      <c r="E121" s="4">
+        <v>17</v>
+      </c>
+      <c r="F121" s="8">
+        <v>22</v>
+      </c>
+      <c r="G121" s="4">
+        <v>27</v>
+      </c>
+      <c r="H121" s="8">
+        <v>32</v>
+      </c>
+      <c r="I121" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B122" s="8">
+        <v>3</v>
+      </c>
+      <c r="C122" s="4">
+        <v>8</v>
+      </c>
+      <c r="D122" s="18">
+        <v>13</v>
+      </c>
+      <c r="E122" s="4">
+        <v>18</v>
+      </c>
+      <c r="F122" s="8">
+        <v>23</v>
+      </c>
+      <c r="G122" s="4">
+        <v>28</v>
+      </c>
+      <c r="H122" s="8">
+        <v>33</v>
+      </c>
+      <c r="I122" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B123" s="9">
+        <v>4</v>
+      </c>
+      <c r="C123" s="6">
+        <v>9</v>
+      </c>
+      <c r="D123" s="9">
+        <v>14</v>
+      </c>
+      <c r="E123" s="6">
+        <v>19</v>
+      </c>
+      <c r="F123" s="9">
+        <v>24</v>
+      </c>
+      <c r="G123" s="6">
+        <v>29</v>
+      </c>
+      <c r="H123" s="9">
+        <v>34</v>
+      </c>
+      <c r="I123" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A125" s="1">
+        <v>21</v>
+      </c>
+      <c r="B125" s="11">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2">
+        <v>5</v>
+      </c>
+      <c r="D125" s="16">
+        <v>10</v>
+      </c>
+      <c r="E125" s="2">
+        <v>15</v>
+      </c>
+      <c r="F125" s="10">
+        <v>20</v>
+      </c>
+      <c r="G125" s="2">
+        <v>25</v>
+      </c>
+      <c r="H125" s="10">
+        <v>30</v>
+      </c>
+      <c r="I125" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B126" s="8">
+        <v>1</v>
+      </c>
+      <c r="C126" s="19">
+        <v>6</v>
+      </c>
+      <c r="D126" s="8">
+        <v>11</v>
+      </c>
+      <c r="E126" s="4">
+        <v>16</v>
+      </c>
+      <c r="F126" s="8">
+        <v>21</v>
+      </c>
+      <c r="G126" s="4">
+        <v>26</v>
+      </c>
+      <c r="H126" s="8">
+        <v>31</v>
+      </c>
+      <c r="I126" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B127" s="18">
+        <v>2</v>
+      </c>
+      <c r="C127" s="4">
+        <v>7</v>
+      </c>
+      <c r="D127" s="8">
+        <v>12</v>
+      </c>
+      <c r="E127" s="4">
+        <v>17</v>
+      </c>
+      <c r="F127" s="8">
+        <v>22</v>
+      </c>
+      <c r="G127" s="4">
+        <v>27</v>
+      </c>
+      <c r="H127" s="8">
+        <v>32</v>
+      </c>
+      <c r="I127" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B128" s="8">
+        <v>3</v>
+      </c>
+      <c r="C128" s="19">
+        <v>8</v>
+      </c>
+      <c r="D128" s="8">
+        <v>13</v>
+      </c>
+      <c r="E128" s="4">
+        <v>18</v>
+      </c>
+      <c r="F128" s="8">
+        <v>23</v>
+      </c>
+      <c r="G128" s="4">
+        <v>28</v>
+      </c>
+      <c r="H128" s="8">
+        <v>33</v>
+      </c>
+      <c r="I128" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B129" s="9">
+        <v>4</v>
+      </c>
+      <c r="C129" s="6">
+        <v>9</v>
+      </c>
+      <c r="D129" s="20">
+        <v>14</v>
+      </c>
+      <c r="E129" s="6">
+        <v>19</v>
+      </c>
+      <c r="F129" s="9">
+        <v>24</v>
+      </c>
+      <c r="G129" s="6">
+        <v>29</v>
+      </c>
+      <c r="H129" s="9">
+        <v>34</v>
+      </c>
+      <c r="I129" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A131" s="1">
+        <v>22</v>
+      </c>
+      <c r="B131" s="11">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2">
+        <v>5</v>
+      </c>
+      <c r="D131" s="16">
+        <v>10</v>
+      </c>
+      <c r="E131" s="2">
+        <v>15</v>
+      </c>
+      <c r="F131" s="10">
+        <v>20</v>
+      </c>
+      <c r="G131" s="2">
+        <v>25</v>
+      </c>
+      <c r="H131" s="10">
+        <v>30</v>
+      </c>
+      <c r="I131" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B132" s="8">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4">
+        <v>6</v>
+      </c>
+      <c r="D132" s="18">
+        <v>11</v>
+      </c>
+      <c r="E132" s="4">
+        <v>16</v>
+      </c>
+      <c r="F132" s="8">
+        <v>21</v>
+      </c>
+      <c r="G132" s="4">
+        <v>26</v>
+      </c>
+      <c r="H132" s="8">
+        <v>31</v>
+      </c>
+      <c r="I132" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B133" s="8">
+        <v>2</v>
+      </c>
+      <c r="C133" s="19">
+        <v>7</v>
+      </c>
+      <c r="D133" s="8">
+        <v>12</v>
+      </c>
+      <c r="E133" s="4">
+        <v>17</v>
+      </c>
+      <c r="F133" s="8">
+        <v>22</v>
+      </c>
+      <c r="G133" s="4">
+        <v>27</v>
+      </c>
+      <c r="H133" s="8">
+        <v>32</v>
+      </c>
+      <c r="I133" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B134" s="18">
+        <v>3</v>
+      </c>
+      <c r="C134" s="4">
+        <v>8</v>
+      </c>
+      <c r="D134" s="8">
+        <v>13</v>
+      </c>
+      <c r="E134" s="4">
+        <v>18</v>
+      </c>
+      <c r="F134" s="8">
+        <v>23</v>
+      </c>
+      <c r="G134" s="4">
+        <v>28</v>
+      </c>
+      <c r="H134" s="8">
+        <v>33</v>
+      </c>
+      <c r="I134" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B135" s="9">
+        <v>4</v>
+      </c>
+      <c r="C135" s="21">
+        <v>9</v>
+      </c>
+      <c r="D135" s="9">
+        <v>14</v>
+      </c>
+      <c r="E135" s="6">
+        <v>19</v>
+      </c>
+      <c r="F135" s="9">
+        <v>24</v>
+      </c>
+      <c r="G135" s="6">
+        <v>29</v>
+      </c>
+      <c r="H135" s="9">
+        <v>34</v>
+      </c>
+      <c r="I135" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A137" s="1">
+        <v>23</v>
+      </c>
+      <c r="B137" s="11">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2">
+        <v>5</v>
+      </c>
+      <c r="D137" s="16">
+        <v>10</v>
+      </c>
+      <c r="E137" s="2">
+        <v>15</v>
+      </c>
+      <c r="F137" s="10">
+        <v>20</v>
+      </c>
+      <c r="G137" s="2">
+        <v>25</v>
+      </c>
+      <c r="H137" s="10">
+        <v>30</v>
+      </c>
+      <c r="I137" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B138" s="8">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4">
+        <v>6</v>
+      </c>
+      <c r="D138" s="18">
+        <v>11</v>
+      </c>
+      <c r="E138" s="4">
+        <v>16</v>
+      </c>
+      <c r="F138" s="8">
+        <v>21</v>
+      </c>
+      <c r="G138" s="4">
+        <v>26</v>
+      </c>
+      <c r="H138" s="8">
+        <v>31</v>
+      </c>
+      <c r="I138" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B139" s="8">
+        <v>2</v>
+      </c>
+      <c r="C139" s="4">
+        <v>7</v>
+      </c>
+      <c r="D139" s="18">
+        <v>12</v>
+      </c>
+      <c r="E139" s="4">
+        <v>17</v>
+      </c>
+      <c r="F139" s="8">
+        <v>22</v>
+      </c>
+      <c r="G139" s="4">
+        <v>27</v>
+      </c>
+      <c r="H139" s="8">
+        <v>32</v>
+      </c>
+      <c r="I139" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B140" s="8">
+        <v>3</v>
+      </c>
+      <c r="C140" s="19">
+        <v>8</v>
+      </c>
+      <c r="D140" s="8">
+        <v>13</v>
+      </c>
+      <c r="E140" s="4">
+        <v>18</v>
+      </c>
+      <c r="F140" s="8">
+        <v>23</v>
+      </c>
+      <c r="G140" s="4">
+        <v>28</v>
+      </c>
+      <c r="H140" s="8">
+        <v>33</v>
+      </c>
+      <c r="I140" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B141" s="20">
+        <v>4</v>
+      </c>
+      <c r="C141" s="6">
+        <v>9</v>
+      </c>
+      <c r="D141" s="9">
+        <v>14</v>
+      </c>
+      <c r="E141" s="6">
+        <v>19</v>
+      </c>
+      <c r="F141" s="9">
+        <v>24</v>
+      </c>
+      <c r="G141" s="6">
+        <v>29</v>
+      </c>
+      <c r="H141" s="9">
+        <v>34</v>
+      </c>
+      <c r="I141" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A143" s="1">
+        <v>24</v>
+      </c>
+      <c r="B143" s="11">
+        <v>0</v>
+      </c>
+      <c r="C143" s="17">
+        <v>5</v>
+      </c>
+      <c r="D143" s="11">
+        <v>10</v>
+      </c>
+      <c r="E143" s="2">
+        <v>15</v>
+      </c>
+      <c r="F143" s="10">
+        <v>20</v>
+      </c>
+      <c r="G143" s="2">
+        <v>25</v>
+      </c>
+      <c r="H143" s="10">
+        <v>30</v>
+      </c>
+      <c r="I143" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B144" s="8">
+        <v>1</v>
+      </c>
+      <c r="C144" s="4">
+        <v>6</v>
+      </c>
+      <c r="D144" s="18">
+        <v>11</v>
+      </c>
+      <c r="E144" s="4">
+        <v>16</v>
+      </c>
+      <c r="F144" s="8">
+        <v>21</v>
+      </c>
+      <c r="G144" s="4">
+        <v>26</v>
+      </c>
+      <c r="H144" s="8">
+        <v>31</v>
+      </c>
+      <c r="I144" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B145" s="8">
+        <v>2</v>
+      </c>
+      <c r="C145" s="4">
+        <v>7</v>
+      </c>
+      <c r="D145" s="18">
+        <v>12</v>
+      </c>
+      <c r="E145" s="4">
+        <v>17</v>
+      </c>
+      <c r="F145" s="8">
+        <v>22</v>
+      </c>
+      <c r="G145" s="4">
+        <v>27</v>
+      </c>
+      <c r="H145" s="8">
+        <v>32</v>
+      </c>
+      <c r="I145" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B146" s="8">
+        <v>3</v>
+      </c>
+      <c r="C146" s="4">
+        <v>8</v>
+      </c>
+      <c r="D146" s="18">
+        <v>13</v>
+      </c>
+      <c r="E146" s="4">
+        <v>18</v>
+      </c>
+      <c r="F146" s="8">
+        <v>23</v>
+      </c>
+      <c r="G146" s="4">
+        <v>28</v>
+      </c>
+      <c r="H146" s="8">
+        <v>33</v>
+      </c>
+      <c r="I146" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B147" s="9">
+        <v>4</v>
+      </c>
+      <c r="C147" s="21">
+        <v>9</v>
+      </c>
+      <c r="D147" s="9">
+        <v>14</v>
+      </c>
+      <c r="E147" s="6">
+        <v>19</v>
+      </c>
+      <c r="F147" s="9">
+        <v>24</v>
+      </c>
+      <c r="G147" s="6">
+        <v>29</v>
+      </c>
+      <c r="H147" s="9">
+        <v>34</v>
+      </c>
+      <c r="I147" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A149" s="1">
+        <v>25</v>
+      </c>
+      <c r="B149" s="11">
+        <v>0</v>
+      </c>
+      <c r="C149" s="17">
+        <v>5</v>
+      </c>
+      <c r="D149" s="11">
+        <v>10</v>
+      </c>
+      <c r="E149" s="2">
+        <v>15</v>
+      </c>
+      <c r="F149" s="10">
+        <v>20</v>
+      </c>
+      <c r="G149" s="2">
+        <v>25</v>
+      </c>
+      <c r="H149" s="10">
+        <v>30</v>
+      </c>
+      <c r="I149" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B150" s="8">
+        <v>1</v>
+      </c>
+      <c r="C150" s="19">
+        <v>6</v>
+      </c>
+      <c r="D150" s="8">
+        <v>11</v>
+      </c>
+      <c r="E150" s="4">
+        <v>16</v>
+      </c>
+      <c r="F150" s="8">
+        <v>21</v>
+      </c>
+      <c r="G150" s="4">
+        <v>26</v>
+      </c>
+      <c r="H150" s="8">
+        <v>31</v>
+      </c>
+      <c r="I150" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B151" s="8">
+        <v>2</v>
+      </c>
+      <c r="C151" s="4">
+        <v>7</v>
+      </c>
+      <c r="D151" s="18">
+        <v>12</v>
+      </c>
+      <c r="E151" s="4">
+        <v>17</v>
+      </c>
+      <c r="F151" s="8">
+        <v>22</v>
+      </c>
+      <c r="G151" s="4">
+        <v>27</v>
+      </c>
+      <c r="H151" s="8">
+        <v>32</v>
+      </c>
+      <c r="I151" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B152" s="8">
+        <v>3</v>
+      </c>
+      <c r="C152" s="4">
+        <v>8</v>
+      </c>
+      <c r="D152" s="18">
+        <v>13</v>
+      </c>
+      <c r="E152" s="4">
+        <v>18</v>
+      </c>
+      <c r="F152" s="8">
+        <v>23</v>
+      </c>
+      <c r="G152" s="4">
+        <v>28</v>
+      </c>
+      <c r="H152" s="8">
+        <v>33</v>
+      </c>
+      <c r="I152" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B153" s="9">
+        <v>4</v>
+      </c>
+      <c r="C153" s="6">
+        <v>9</v>
+      </c>
+      <c r="D153" s="20">
+        <v>14</v>
+      </c>
+      <c r="E153" s="6">
+        <v>19</v>
+      </c>
+      <c r="F153" s="9">
+        <v>24</v>
+      </c>
+      <c r="G153" s="6">
+        <v>29</v>
+      </c>
+      <c r="H153" s="9">
+        <v>34</v>
+      </c>
+      <c r="I153" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A155" s="1">
+        <v>26</v>
+      </c>
+      <c r="B155" s="11">
+        <v>0</v>
+      </c>
+      <c r="C155" s="2">
+        <v>5</v>
+      </c>
+      <c r="D155" s="16">
+        <v>10</v>
+      </c>
+      <c r="E155" s="2">
+        <v>15</v>
+      </c>
+      <c r="F155" s="10">
+        <v>20</v>
+      </c>
+      <c r="G155" s="2">
+        <v>25</v>
+      </c>
+      <c r="H155" s="10">
+        <v>30</v>
+      </c>
+      <c r="I155" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B156" s="8">
+        <v>1</v>
+      </c>
+      <c r="C156" s="19">
+        <v>6</v>
+      </c>
+      <c r="D156" s="8">
+        <v>11</v>
+      </c>
+      <c r="E156" s="4">
+        <v>16</v>
+      </c>
+      <c r="F156" s="8">
+        <v>21</v>
+      </c>
+      <c r="G156" s="4">
+        <v>26</v>
+      </c>
+      <c r="H156" s="8">
+        <v>31</v>
+      </c>
+      <c r="I156" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B157" s="8">
+        <v>2</v>
+      </c>
+      <c r="C157" s="19">
+        <v>7</v>
+      </c>
+      <c r="D157" s="8">
+        <v>12</v>
+      </c>
+      <c r="E157" s="4">
+        <v>17</v>
+      </c>
+      <c r="F157" s="8">
+        <v>22</v>
+      </c>
+      <c r="G157" s="4">
+        <v>27</v>
+      </c>
+      <c r="H157" s="8">
+        <v>32</v>
+      </c>
+      <c r="I157" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B158" s="8">
+        <v>3</v>
+      </c>
+      <c r="C158" s="4">
+        <v>8</v>
+      </c>
+      <c r="D158" s="18">
+        <v>13</v>
+      </c>
+      <c r="E158" s="4">
+        <v>18</v>
+      </c>
+      <c r="F158" s="8">
+        <v>23</v>
+      </c>
+      <c r="G158" s="4">
+        <v>28</v>
+      </c>
+      <c r="H158" s="8">
+        <v>33</v>
+      </c>
+      <c r="I158" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B159" s="9">
+        <v>4</v>
+      </c>
+      <c r="C159" s="6">
+        <v>9</v>
+      </c>
+      <c r="D159" s="20">
+        <v>14</v>
+      </c>
+      <c r="E159" s="6">
+        <v>19</v>
+      </c>
+      <c r="F159" s="9">
+        <v>24</v>
+      </c>
+      <c r="G159" s="6">
+        <v>29</v>
+      </c>
+      <c r="H159" s="9">
+        <v>34</v>
+      </c>
+      <c r="I159" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A161" s="1">
+        <v>27</v>
+      </c>
+      <c r="B161" s="11">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2">
+        <v>5</v>
+      </c>
+      <c r="D161" s="11">
+        <v>10</v>
+      </c>
+      <c r="E161" s="2">
+        <v>15</v>
+      </c>
+      <c r="F161" s="10">
+        <v>20</v>
+      </c>
+      <c r="G161" s="2">
+        <v>25</v>
+      </c>
+      <c r="H161" s="10">
+        <v>30</v>
+      </c>
+      <c r="I161" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B162" s="8">
+        <v>1</v>
+      </c>
+      <c r="C162" s="4">
+        <v>6</v>
+      </c>
+      <c r="D162" s="18">
+        <v>11</v>
+      </c>
+      <c r="E162" s="4">
+        <v>16</v>
+      </c>
+      <c r="F162" s="8">
+        <v>21</v>
+      </c>
+      <c r="G162" s="4">
+        <v>26</v>
+      </c>
+      <c r="H162" s="8">
+        <v>31</v>
+      </c>
+      <c r="I162" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B163" s="8">
+        <v>2</v>
+      </c>
+      <c r="C163" s="19">
+        <v>7</v>
+      </c>
+      <c r="D163" s="8">
+        <v>12</v>
+      </c>
+      <c r="E163" s="4">
+        <v>17</v>
+      </c>
+      <c r="F163" s="8">
+        <v>22</v>
+      </c>
+      <c r="G163" s="4">
+        <v>27</v>
+      </c>
+      <c r="H163" s="8">
+        <v>32</v>
+      </c>
+      <c r="I163" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B164" s="8">
+        <v>3</v>
+      </c>
+      <c r="C164" s="19">
+        <v>8</v>
+      </c>
+      <c r="D164" s="8">
+        <v>13</v>
+      </c>
+      <c r="E164" s="4">
+        <v>18</v>
+      </c>
+      <c r="F164" s="8">
+        <v>23</v>
+      </c>
+      <c r="G164" s="4">
+        <v>28</v>
+      </c>
+      <c r="H164" s="8">
+        <v>33</v>
+      </c>
+      <c r="I164" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B165" s="9">
+        <v>4</v>
+      </c>
+      <c r="C165" s="6">
+        <v>9</v>
+      </c>
+      <c r="D165" s="20">
+        <v>14</v>
+      </c>
+      <c r="E165" s="6">
+        <v>19</v>
+      </c>
+      <c r="F165" s="9">
+        <v>24</v>
+      </c>
+      <c r="G165" s="6">
+        <v>29</v>
+      </c>
+      <c r="H165" s="9">
+        <v>34</v>
+      </c>
+      <c r="I165" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A167" s="1">
+        <v>28</v>
+      </c>
+      <c r="B167" s="11">
+        <v>0</v>
+      </c>
+      <c r="C167" s="17">
+        <v>5</v>
+      </c>
+      <c r="D167" s="11">
+        <v>10</v>
+      </c>
+      <c r="E167" s="2">
+        <v>15</v>
+      </c>
+      <c r="F167" s="10">
+        <v>20</v>
+      </c>
+      <c r="G167" s="2">
+        <v>25</v>
+      </c>
+      <c r="H167" s="10">
+        <v>30</v>
+      </c>
+      <c r="I167" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B168" s="8">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4">
+        <v>6</v>
+      </c>
+      <c r="D168" s="8">
+        <v>11</v>
+      </c>
+      <c r="E168" s="4">
+        <v>16</v>
+      </c>
+      <c r="F168" s="8">
+        <v>21</v>
+      </c>
+      <c r="G168" s="4">
+        <v>26</v>
+      </c>
+      <c r="H168" s="8">
+        <v>31</v>
+      </c>
+      <c r="I168" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B169" s="8">
+        <v>2</v>
+      </c>
+      <c r="C169" s="4">
+        <v>7</v>
+      </c>
+      <c r="D169" s="18">
+        <v>12</v>
+      </c>
+      <c r="E169" s="4">
+        <v>17</v>
+      </c>
+      <c r="F169" s="8">
+        <v>22</v>
+      </c>
+      <c r="G169" s="4">
+        <v>27</v>
+      </c>
+      <c r="H169" s="8">
+        <v>32</v>
+      </c>
+      <c r="I169" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B170" s="8">
+        <v>3</v>
+      </c>
+      <c r="C170" s="19">
+        <v>8</v>
+      </c>
+      <c r="D170" s="8">
+        <v>13</v>
+      </c>
+      <c r="E170" s="4">
+        <v>18</v>
+      </c>
+      <c r="F170" s="8">
+        <v>23</v>
+      </c>
+      <c r="G170" s="4">
+        <v>28</v>
+      </c>
+      <c r="H170" s="8">
+        <v>33</v>
+      </c>
+      <c r="I170" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B171" s="9">
+        <v>4</v>
+      </c>
+      <c r="C171" s="21">
+        <v>9</v>
+      </c>
+      <c r="D171" s="9">
+        <v>14</v>
+      </c>
+      <c r="E171" s="6">
+        <v>19</v>
+      </c>
+      <c r="F171" s="9">
+        <v>24</v>
+      </c>
+      <c r="G171" s="6">
+        <v>29</v>
+      </c>
+      <c r="H171" s="9">
+        <v>34</v>
+      </c>
+      <c r="I171" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A173" s="1">
+        <v>29</v>
+      </c>
+      <c r="B173" s="16">
+        <v>0</v>
+      </c>
+      <c r="C173" s="2">
+        <v>5</v>
+      </c>
+      <c r="D173" s="11">
+        <v>10</v>
+      </c>
+      <c r="E173" s="2">
+        <v>15</v>
+      </c>
+      <c r="F173" s="10">
+        <v>20</v>
+      </c>
+      <c r="G173" s="2">
+        <v>25</v>
+      </c>
+      <c r="H173" s="10">
+        <v>30</v>
+      </c>
+      <c r="I173" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B174" s="8">
+        <v>1</v>
+      </c>
+      <c r="C174" s="19">
+        <v>6</v>
+      </c>
+      <c r="D174" s="8">
+        <v>11</v>
+      </c>
+      <c r="E174" s="4">
+        <v>16</v>
+      </c>
+      <c r="F174" s="8">
+        <v>21</v>
+      </c>
+      <c r="G174" s="4">
+        <v>26</v>
+      </c>
+      <c r="H174" s="8">
+        <v>31</v>
+      </c>
+      <c r="I174" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B175" s="8">
+        <v>2</v>
+      </c>
+      <c r="C175" s="4">
+        <v>7</v>
+      </c>
+      <c r="D175" s="8">
+        <v>12</v>
+      </c>
+      <c r="E175" s="4">
+        <v>17</v>
+      </c>
+      <c r="F175" s="8">
+        <v>22</v>
+      </c>
+      <c r="G175" s="4">
+        <v>27</v>
+      </c>
+      <c r="H175" s="8">
+        <v>32</v>
+      </c>
+      <c r="I175" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B176" s="8">
+        <v>3</v>
+      </c>
+      <c r="C176" s="4">
+        <v>8</v>
+      </c>
+      <c r="D176" s="18">
+        <v>13</v>
+      </c>
+      <c r="E176" s="4">
+        <v>18</v>
+      </c>
+      <c r="F176" s="8">
+        <v>23</v>
+      </c>
+      <c r="G176" s="4">
+        <v>28</v>
+      </c>
+      <c r="H176" s="8">
+        <v>33</v>
+      </c>
+      <c r="I176" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B177" s="9">
+        <v>4</v>
+      </c>
+      <c r="C177" s="21">
+        <v>9</v>
+      </c>
+      <c r="D177" s="9">
+        <v>14</v>
+      </c>
+      <c r="E177" s="6">
+        <v>19</v>
+      </c>
+      <c r="F177" s="9">
+        <v>24</v>
+      </c>
+      <c r="G177" s="6">
+        <v>29</v>
+      </c>
+      <c r="H177" s="9">
+        <v>34</v>
+      </c>
+      <c r="I177" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A179" s="1">
+        <v>30</v>
+      </c>
+      <c r="B179" s="11">
+        <v>0</v>
+      </c>
+      <c r="C179" s="2">
+        <v>5</v>
+      </c>
+      <c r="D179" s="11">
+        <v>10</v>
+      </c>
+      <c r="E179" s="2">
+        <v>15</v>
+      </c>
+      <c r="F179" s="10">
+        <v>20</v>
+      </c>
+      <c r="G179" s="2">
+        <v>25</v>
+      </c>
+      <c r="H179" s="10">
+        <v>30</v>
+      </c>
+      <c r="I179" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B180" s="18">
+        <v>1</v>
+      </c>
+      <c r="C180" s="4">
+        <v>6</v>
+      </c>
+      <c r="D180" s="8">
+        <v>11</v>
+      </c>
+      <c r="E180" s="4">
+        <v>16</v>
+      </c>
+      <c r="F180" s="8">
+        <v>21</v>
+      </c>
+      <c r="G180" s="4">
+        <v>26</v>
+      </c>
+      <c r="H180" s="8">
+        <v>31</v>
+      </c>
+      <c r="I180" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B181" s="8">
+        <v>2</v>
+      </c>
+      <c r="C181" s="19">
+        <v>7</v>
+      </c>
+      <c r="D181" s="8">
+        <v>12</v>
+      </c>
+      <c r="E181" s="4">
+        <v>17</v>
+      </c>
+      <c r="F181" s="8">
+        <v>22</v>
+      </c>
+      <c r="G181" s="4">
+        <v>27</v>
+      </c>
+      <c r="H181" s="8">
+        <v>32</v>
+      </c>
+      <c r="I181" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B182" s="8">
+        <v>3</v>
+      </c>
+      <c r="C182" s="4">
+        <v>8</v>
+      </c>
+      <c r="D182" s="8">
+        <v>13</v>
+      </c>
+      <c r="E182" s="4">
+        <v>18</v>
+      </c>
+      <c r="F182" s="8">
+        <v>23</v>
+      </c>
+      <c r="G182" s="4">
+        <v>28</v>
+      </c>
+      <c r="H182" s="8">
+        <v>33</v>
+      </c>
+      <c r="I182" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B183" s="9">
+        <v>4</v>
+      </c>
+      <c r="C183" s="6">
+        <v>9</v>
+      </c>
+      <c r="D183" s="20">
+        <v>14</v>
+      </c>
+      <c r="E183" s="6">
+        <v>19</v>
+      </c>
+      <c r="F183" s="9">
+        <v>24</v>
+      </c>
+      <c r="G183" s="6">
+        <v>29</v>
+      </c>
+      <c r="H183" s="9">
+        <v>34</v>
+      </c>
+      <c r="I183" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B185" s="11">
+        <v>0</v>
+      </c>
+      <c r="C185" s="2">
+        <v>5</v>
+      </c>
+      <c r="D185" s="11">
+        <v>10</v>
+      </c>
+      <c r="E185" s="2">
+        <v>15</v>
+      </c>
+      <c r="F185" s="10">
+        <v>20</v>
+      </c>
+      <c r="G185" s="2">
+        <v>25</v>
+      </c>
+      <c r="H185" s="10">
+        <v>30</v>
+      </c>
+      <c r="I185" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B186" s="8">
+        <v>1</v>
+      </c>
+      <c r="C186" s="4">
+        <v>6</v>
+      </c>
+      <c r="D186" s="8">
+        <v>11</v>
+      </c>
+      <c r="E186" s="4">
+        <v>16</v>
+      </c>
+      <c r="F186" s="8">
+        <v>21</v>
+      </c>
+      <c r="G186" s="4">
+        <v>26</v>
+      </c>
+      <c r="H186" s="8">
+        <v>31</v>
+      </c>
+      <c r="I186" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B187" s="18">
+        <v>2</v>
+      </c>
+      <c r="C187" s="4">
+        <v>7</v>
+      </c>
+      <c r="D187" s="8">
+        <v>12</v>
+      </c>
+      <c r="E187" s="4">
+        <v>17</v>
+      </c>
+      <c r="F187" s="8">
+        <v>22</v>
+      </c>
+      <c r="G187" s="4">
+        <v>27</v>
+      </c>
+      <c r="H187" s="8">
+        <v>32</v>
+      </c>
+      <c r="I187" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B188" s="8">
+        <v>3</v>
+      </c>
+      <c r="C188" s="19">
+        <v>8</v>
+      </c>
+      <c r="D188" s="8">
+        <v>13</v>
+      </c>
+      <c r="E188" s="4">
+        <v>18</v>
+      </c>
+      <c r="F188" s="8">
+        <v>23</v>
+      </c>
+      <c r="G188" s="4">
+        <v>28</v>
+      </c>
+      <c r="H188" s="8">
+        <v>33</v>
+      </c>
+      <c r="I188" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B189" s="9">
+        <v>4</v>
+      </c>
+      <c r="C189" s="6">
+        <v>9</v>
+      </c>
+      <c r="D189" s="9">
+        <v>14</v>
+      </c>
+      <c r="E189" s="6">
+        <v>19</v>
+      </c>
+      <c r="F189" s="9">
+        <v>24</v>
+      </c>
+      <c r="G189" s="6">
+        <v>29</v>
+      </c>
+      <c r="H189" s="9">
+        <v>34</v>
+      </c>
+      <c r="I189" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B191" s="11">
+        <v>0</v>
+      </c>
+      <c r="C191" s="2">
+        <v>5</v>
+      </c>
+      <c r="D191" s="11">
+        <v>10</v>
+      </c>
+      <c r="E191" s="2">
+        <v>15</v>
+      </c>
+      <c r="F191" s="10">
+        <v>20</v>
+      </c>
+      <c r="G191" s="2">
+        <v>25</v>
+      </c>
+      <c r="H191" s="10">
+        <v>30</v>
+      </c>
+      <c r="I191" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B192" s="8">
+        <v>1</v>
+      </c>
+      <c r="C192" s="4">
+        <v>6</v>
+      </c>
+      <c r="D192" s="8">
+        <v>11</v>
+      </c>
+      <c r="E192" s="4">
+        <v>16</v>
+      </c>
+      <c r="F192" s="8">
+        <v>21</v>
+      </c>
+      <c r="G192" s="4">
+        <v>26</v>
+      </c>
+      <c r="H192" s="8">
+        <v>31</v>
+      </c>
+      <c r="I192" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B193" s="8">
+        <v>2</v>
+      </c>
+      <c r="C193" s="4">
+        <v>7</v>
+      </c>
+      <c r="D193" s="8">
+        <v>12</v>
+      </c>
+      <c r="E193" s="4">
+        <v>17</v>
+      </c>
+      <c r="F193" s="8">
+        <v>22</v>
+      </c>
+      <c r="G193" s="4">
+        <v>27</v>
+      </c>
+      <c r="H193" s="8">
+        <v>32</v>
+      </c>
+      <c r="I193" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B194" s="18">
+        <v>3</v>
+      </c>
+      <c r="C194" s="4">
+        <v>8</v>
+      </c>
+      <c r="D194" s="8">
+        <v>13</v>
+      </c>
+      <c r="E194" s="4">
+        <v>18</v>
+      </c>
+      <c r="F194" s="8">
+        <v>23</v>
+      </c>
+      <c r="G194" s="4">
+        <v>28</v>
+      </c>
+      <c r="H194" s="8">
+        <v>33</v>
+      </c>
+      <c r="I194" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B195" s="9">
+        <v>4</v>
+      </c>
+      <c r="C195" s="21">
+        <v>9</v>
+      </c>
+      <c r="D195" s="9">
+        <v>14</v>
+      </c>
+      <c r="E195" s="6">
+        <v>19</v>
+      </c>
+      <c r="F195" s="9">
+        <v>24</v>
+      </c>
+      <c r="G195" s="6">
+        <v>29</v>
+      </c>
+      <c r="H195" s="9">
+        <v>34</v>
+      </c>
+      <c r="I195" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B197" s="11">
+        <v>0</v>
+      </c>
+      <c r="C197" s="2">
+        <v>5</v>
+      </c>
+      <c r="D197" s="11">
+        <v>10</v>
+      </c>
+      <c r="E197" s="2">
+        <v>15</v>
+      </c>
+      <c r="F197" s="10">
+        <v>20</v>
+      </c>
+      <c r="G197" s="2">
+        <v>25</v>
+      </c>
+      <c r="H197" s="10">
+        <v>30</v>
+      </c>
+      <c r="I197" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B198" s="8">
+        <v>1</v>
+      </c>
+      <c r="C198" s="4">
+        <v>6</v>
+      </c>
+      <c r="D198" s="8">
+        <v>11</v>
+      </c>
+      <c r="E198" s="4">
+        <v>16</v>
+      </c>
+      <c r="F198" s="8">
+        <v>21</v>
+      </c>
+      <c r="G198" s="4">
+        <v>26</v>
+      </c>
+      <c r="H198" s="8">
+        <v>31</v>
+      </c>
+      <c r="I198" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B199" s="8">
+        <v>2</v>
+      </c>
+      <c r="C199" s="4">
+        <v>7</v>
+      </c>
+      <c r="D199" s="8">
+        <v>12</v>
+      </c>
+      <c r="E199" s="4">
+        <v>17</v>
+      </c>
+      <c r="F199" s="8">
+        <v>22</v>
+      </c>
+      <c r="G199" s="4">
+        <v>27</v>
+      </c>
+      <c r="H199" s="8">
+        <v>32</v>
+      </c>
+      <c r="I199" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B200" s="8">
+        <v>3</v>
+      </c>
+      <c r="C200" s="4">
+        <v>8</v>
+      </c>
+      <c r="D200" s="8">
+        <v>13</v>
+      </c>
+      <c r="E200" s="4">
+        <v>18</v>
+      </c>
+      <c r="F200" s="8">
+        <v>23</v>
+      </c>
+      <c r="G200" s="4">
+        <v>28</v>
+      </c>
+      <c r="H200" s="8">
+        <v>33</v>
+      </c>
+      <c r="I200" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B201" s="20">
+        <v>4</v>
+      </c>
+      <c r="C201" s="6">
+        <v>9</v>
+      </c>
+      <c r="D201" s="9">
+        <v>14</v>
+      </c>
+      <c r="E201" s="6">
+        <v>19</v>
+      </c>
+      <c r="F201" s="9">
+        <v>24</v>
+      </c>
+      <c r="G201" s="6">
+        <v>29</v>
+      </c>
+      <c r="H201" s="9">
+        <v>34</v>
+      </c>
+      <c r="I201" s="7">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864E1016-7F1A-4D50-95DB-84711CB1C01F}">
+  <dimension ref="A1:K67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CE4517-28A5-4B02-A5CF-6297D862C607}">
+  <dimension ref="A1:AG11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="2.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.7">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>110</v>
+      </c>
+      <c r="M2">
+        <v>68</v>
+      </c>
+      <c r="N2">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2">
+        <f>12+75*2</f>
+        <v>162</v>
+      </c>
+      <c r="R2">
+        <v>110</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2">
+        <f>12+75*4</f>
+        <v>312</v>
+      </c>
+      <c r="V2">
+        <v>110</v>
+      </c>
+      <c r="X2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2">
+        <f>12+75*6</f>
+        <v>462</v>
+      </c>
+      <c r="Z2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8">
+        <v>22</v>
+      </c>
+      <c r="F3" s="14">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <f>110+75*1</f>
+        <v>185</v>
+      </c>
+      <c r="M3">
+        <v>68</v>
+      </c>
+      <c r="N3">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q6" si="0">12+75*2</f>
+        <v>162</v>
+      </c>
+      <c r="R3">
+        <f>110+75*1</f>
+        <v>185</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U6" si="1">12+75*4</f>
+        <v>312</v>
+      </c>
+      <c r="V3">
+        <f>110+75*1</f>
+        <v>185</v>
+      </c>
+      <c r="X3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y6" si="2">12+75*6</f>
+        <v>462</v>
+      </c>
+      <c r="Z3">
+        <f>110+75*1</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <f>110+75*2</f>
+        <v>260</v>
+      </c>
+      <c r="M4">
+        <v>68</v>
+      </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="R4">
+        <f>110+75*2</f>
+        <v>260</v>
+      </c>
+      <c r="T4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="V4">
+        <f>110+75*2</f>
+        <v>260</v>
+      </c>
+      <c r="X4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="Z4">
+        <f>110+75*2</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8">
+        <v>34</v>
+      </c>
+      <c r="H5" s="5">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <f>110+75*3</f>
+        <v>335</v>
+      </c>
+      <c r="M5">
+        <v>68</v>
+      </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="R5">
+        <f>110+75*3</f>
+        <v>335</v>
+      </c>
+      <c r="T5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="V5">
+        <f>110+75*3</f>
+        <v>335</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="Z5">
+        <f>110+75*3</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6">
+        <v>30</v>
+      </c>
+      <c r="G6" s="9">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <f>110+75*4</f>
+        <v>410</v>
+      </c>
+      <c r="M6">
+        <v>68</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="R6">
+        <f>110+75*4</f>
+        <v>410</v>
+      </c>
+      <c r="T6" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="V6">
+        <f>110+75*4</f>
+        <v>410</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="Z6">
+        <f>110+75*4</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.7">
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <f>12+75</f>
+        <v>87</v>
+      </c>
+      <c r="L7">
+        <v>110</v>
+      </c>
+      <c r="M7">
+        <v>68</v>
+      </c>
+      <c r="N7">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7">
+        <f>12+75*3</f>
+        <v>237</v>
+      </c>
+      <c r="R7">
+        <v>110</v>
+      </c>
+      <c r="T7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7">
+        <f>12+75*5</f>
+        <v>387</v>
+      </c>
+      <c r="V7">
+        <v>110</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7">
+        <f>12+75*7</f>
+        <v>537</v>
+      </c>
+      <c r="Z7">
+        <v>110</v>
+      </c>
+      <c r="AG7">
+        <f>224-131</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.7">
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K11" si="3">12+75</f>
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <f>110+75*1</f>
+        <v>185</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q11" si="4">12+75*3</f>
+        <v>237</v>
+      </c>
+      <c r="R8">
+        <f>110+75*1</f>
+        <v>185</v>
+      </c>
+      <c r="T8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U11" si="5">12+75*5</f>
+        <v>387</v>
+      </c>
+      <c r="V8">
+        <f>110+75*1</f>
+        <v>185</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ref="Y8:Y11" si="6">12+75*7</f>
+        <v>537</v>
+      </c>
+      <c r="Z8">
+        <f>110+75*1</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.7">
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="L9">
+        <f>110+75*2</f>
+        <v>260</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="R9">
+        <f>110+75*2</f>
+        <v>260</v>
+      </c>
+      <c r="T9" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>387</v>
+      </c>
+      <c r="V9">
+        <f>110+75*2</f>
+        <v>260</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>537</v>
+      </c>
+      <c r="Z9">
+        <f>110+75*2</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.7">
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="L10">
+        <f>110+75*3</f>
+        <v>335</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="R10">
+        <f>110+75*3</f>
+        <v>335</v>
+      </c>
+      <c r="T10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>387</v>
+      </c>
+      <c r="V10">
+        <f>110+75*3</f>
+        <v>335</v>
+      </c>
+      <c r="X10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>537</v>
+      </c>
+      <c r="Z10">
+        <f>110+75*3</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.7">
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="L11">
+        <f>110+75*4</f>
+        <v>410</v>
+      </c>
+      <c r="M11">
+        <v>68</v>
+      </c>
+      <c r="N11">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="R11">
+        <f>110+75*4</f>
+        <v>410</v>
+      </c>
+      <c r="T11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>387</v>
+      </c>
+      <c r="V11">
+        <f>110+75*4</f>
+        <v>410</v>
+      </c>
+      <c r="X11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="6"/>
+        <v>537</v>
+      </c>
+      <c r="Z11">
+        <f>110+75*4</f>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
